--- a/IEDC_Classification_fill/general_product_categories_data.xlsx
+++ b/IEDC_Classification_fill/general_product_categories_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>reserved</t>
+  </si>
+  <si>
+    <t>buildings, construction, and infrastructure</t>
+  </si>
+  <si>
+    <t>machinery</t>
+  </si>
+  <si>
+    <t>vehicles and other transport equipment</t>
+  </si>
+  <si>
+    <t>appliances, packaging, and other</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
   <dimension ref="A1:T401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F401"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +846,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -850,7 +862,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,7 +878,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -882,7 +894,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">

--- a/IEDC_Classification_fill/general_product_categories_data.xlsx
+++ b/IEDC_Classification_fill/general_product_categories_data.xlsx
@@ -130,16 +130,16 @@
     <t>reserved</t>
   </si>
   <si>
-    <t>buildings, construction, and infrastructure</t>
-  </si>
-  <si>
-    <t>machinery</t>
-  </si>
-  <si>
     <t>vehicles and other transport equipment</t>
   </si>
   <si>
-    <t>appliances, packaging, and other</t>
+    <t>industrial machinery</t>
+  </si>
+  <si>
+    <t>buildings - construction - infrastructure</t>
+  </si>
+  <si>
+    <t>appliances - packaging - other</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">

--- a/IEDC_Classification_fill/general_product_categories_data.xlsx
+++ b/IEDC_Classification_fill/general_product_categories_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>appliances - packaging - other</t>
+  </si>
+  <si>
+    <t>residential buildings, rural</t>
+  </si>
+  <si>
+    <t>residential buildings, urban</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:T401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +916,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -925,8 +931,8 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>37</v>
+      <c r="F24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
